--- a/templates_docs/template.xlsx
+++ b/templates_docs/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kp_generator\templates_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A2882F-E71D-4B23-B15F-E66BA6924888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE47DE-2732-4DA9-AC33-7D9E7C0B67A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11325" yWindow="2985" windowWidth="21600" windowHeight="11505" tabRatio="294" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="294" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="расчет" sheetId="4" r:id="rId1"/>
@@ -301,9 +301,6 @@
     <t>{{ company }}</t>
   </si>
   <si>
-    <t>{{ product }}</t>
-  </si>
-  <si>
     <t>{{ quantity }}</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>{{ logistics }}</t>
+  </si>
+  <si>
+    <t>{{ product }} ч.{{ drawing_number }}</t>
   </si>
 </sst>
 </file>
@@ -3270,9 +3270,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="38" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3570,6 +3567,45 @@
     <xf numFmtId="9" fontId="32" fillId="0" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3628,43 +3664,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5678,8 +5678,8 @@
   </sheetPr>
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U31" sqref="C29:U31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1640625" defaultRowHeight="11.45" customHeight="1"/>
@@ -5697,8 +5697,8 @@
     <col min="13" max="13" width="15.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="16.1640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="28.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" style="105" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="105" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" style="104" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="104" customWidth="1"/>
     <col min="18" max="18" width="16.6640625" style="8" customWidth="1"/>
     <col min="19" max="19" width="15.6640625" style="8" customWidth="1"/>
     <col min="20" max="20" width="16.1640625" style="8" customWidth="1"/>
@@ -5715,22 +5715,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B2" s="2"/>
@@ -5743,11 +5743,11 @@
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
       <c r="J2" s="6"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="172"/>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1">
       <c r="B3" s="2"/>
@@ -5769,11 +5769,11 @@
       <c r="O3" s="5"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="160"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="172"/>
     </row>
     <row r="4" spans="1:30" ht="39.75" customHeight="1">
       <c r="B4" s="9"/>
@@ -5793,17 +5793,17 @@
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="162"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="162"/>
-      <c r="U4" s="162"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="160"/>
-      <c r="Z4" s="160"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="174"/>
+      <c r="R4" s="174"/>
+      <c r="S4" s="174"/>
+      <c r="T4" s="174"/>
+      <c r="U4" s="174"/>
+      <c r="V4" s="172"/>
+      <c r="W4" s="172"/>
+      <c r="X4" s="172"/>
+      <c r="Y4" s="172"/>
+      <c r="Z4" s="172"/>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1">
       <c r="B5" s="12"/>
@@ -5828,18 +5828,18 @@
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
-      <c r="X5" s="160"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="160"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="172"/>
+      <c r="Y5" s="172"/>
+      <c r="Z5" s="172"/>
     </row>
     <row r="6" spans="1:30" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="17"/>
-      <c r="B6" s="168" t="s">
+      <c r="B6" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="168"/>
+      <c r="C6" s="180"/>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
@@ -5852,43 +5852,43 @@
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
-      <c r="V6" s="161"/>
-      <c r="W6" s="161"/>
-      <c r="X6" s="161"/>
-      <c r="Y6" s="161"/>
-      <c r="Z6" s="161"/>
+      <c r="V6" s="173"/>
+      <c r="W6" s="173"/>
+      <c r="X6" s="173"/>
+      <c r="Y6" s="173"/>
+      <c r="Z6" s="173"/>
     </row>
     <row r="7" spans="1:30" ht="15" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="154" t="s">
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="154"/>
-      <c r="M7" s="154"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="154"/>
-      <c r="T7" s="154"/>
-      <c r="U7" s="154"/>
-      <c r="V7" s="154"/>
-      <c r="W7" s="154"/>
-      <c r="X7" s="154"/>
-      <c r="Y7" s="154"/>
-      <c r="Z7" s="155"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="166"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="166"/>
+      <c r="X7" s="166"/>
+      <c r="Y7" s="166"/>
+      <c r="Z7" s="167"/>
     </row>
     <row r="8" spans="1:30" s="22" customFormat="1" ht="54.75" customHeight="1">
       <c r="A8" s="21"/>
@@ -5958,10 +5958,10 @@
       <c r="W8" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="X8" s="169" t="s">
+      <c r="X8" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="Y8" s="170"/>
+      <c r="Y8" s="182"/>
       <c r="Z8" s="25" t="s">
         <v>43</v>
       </c>
@@ -5972,10 +5972,10 @@
     </row>
     <row r="9" spans="1:30" s="42" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="31"/>
-      <c r="B9" s="167">
+      <c r="B9" s="179">
         <v>1</v>
       </c>
-      <c r="C9" s="167"/>
+      <c r="C9" s="179"/>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33">
@@ -6038,1055 +6038,1055 @@
       <c r="AC9" s="40"/>
       <c r="AD9" s="41"/>
     </row>
-    <row r="10" spans="1:30" s="66" customFormat="1" ht="56.25" customHeight="1">
+    <row r="10" spans="1:30" s="65" customFormat="1" ht="56.25" customHeight="1">
       <c r="A10" s="43"/>
       <c r="B10" s="44">
         <v>1</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="47"/>
       <c r="F10" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50" t="e">
+      <c r="G10" s="184" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49" t="e">
         <f>G10*H10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J10" s="51" t="e">
+      <c r="J10" s="50" t="e">
         <f>I10*14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K10" s="52" t="s">
+      <c r="K10" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="53" t="str">
+      <c r="L10" s="52" t="str">
         <f>G10</f>
         <v>{{ quantity }}</v>
       </c>
-      <c r="M10" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="N10" s="55" t="e">
+      <c r="M10" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="54" t="e">
         <f>M10/P10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O10" s="56" t="e">
+      <c r="O10" s="55" t="e">
         <f>M10*L10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P10" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q10" s="58" t="e">
+      <c r="P10" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="57" t="e">
         <f>P10*L10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R10" s="59" t="e">
+      <c r="R10" s="58" t="e">
         <f>$U$14/Q11*P10/12*0.3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S10" s="59" t="e">
+      <c r="S10" s="58" t="e">
         <f>R10*L10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T10" s="59" t="e">
+      <c r="T10" s="58" t="e">
         <f>$U$14/Q11*P10/12*0.7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U10" s="59" t="e">
+      <c r="U10" s="58" t="e">
         <f>T10*L10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V10" s="60" t="e">
+      <c r="V10" s="59" t="e">
         <f>H10/P10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W10" s="55" t="e">
+      <c r="W10" s="54" t="e">
         <f>N10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X10" s="61" t="s">
+      <c r="X10" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="Y10" s="62" t="e">
+      <c r="Y10" s="61" t="e">
         <f>L10*(M10+R10)*X10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Z10" s="63" t="e">
+      <c r="Z10" s="62" t="e">
         <f>(I10-O10-S10-U10-Y10-AA10-AC10-AB10)/I10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="65"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="64"/>
     </row>
-    <row r="11" spans="1:30" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:30" s="65" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="43"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="50" t="e">
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="49" t="e">
         <f>SUM(I10:I10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="50" t="e">
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="49" t="e">
         <f>SUM(O10:O10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="78" t="e">
+      <c r="P11" s="76"/>
+      <c r="Q11" s="77" t="e">
         <f>SUM(Q10:Q10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R11" s="79"/>
-      <c r="S11" s="50" t="e">
+      <c r="R11" s="78"/>
+      <c r="S11" s="49" t="e">
         <f>SUM(S10:S10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80" t="e">
+      <c r="T11" s="79"/>
+      <c r="U11" s="79" t="e">
         <f>SUM(U10:U10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V11" s="81"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="83" t="e">
+      <c r="V11" s="80"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="82" t="e">
         <f>AVERAGE(X10:X10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y11" s="50" t="e">
+      <c r="Y11" s="49" t="e">
         <f>SUM(Y10:Y10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Z11" s="84" t="e">
+      <c r="Z11" s="83" t="e">
         <f>(I11-O11-S11-U11-Y11-AA11-AC11-AB11)/I11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:30" s="65" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="43"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="71" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="50" t="e">
+      <c r="I12" s="49" t="e">
         <f>I11*1.2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="89"/>
+      <c r="J12" s="88"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="101"/>
-      <c r="AC12" s="102"/>
-      <c r="AD12" s="65"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="100"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="64"/>
     </row>
     <row r="13" spans="1:30" s="1" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="R13" s="106"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="R13" s="105"/>
       <c r="AD13" s="15"/>
     </row>
     <row r="14" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="166"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="178"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="107"/>
+      <c r="O14" s="106"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="110" t="s">
+      <c r="R14" s="107"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="U14" s="111" t="s">
-        <v>90</v>
-      </c>
-      <c r="V14" s="112"/>
-      <c r="W14" s="110"/>
+      <c r="U14" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="V14" s="111"/>
+      <c r="W14" s="109"/>
     </row>
     <row r="15" spans="1:30" s="1" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="113">
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="112">
         <v>140</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="105">
+      <c r="K15" s="104">
         <f>I15+I16</f>
         <v>170</v>
       </c>
-      <c r="L15" s="105"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="109"/>
-      <c r="U15" s="114"/>
+      <c r="L15" s="104"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="108"/>
+      <c r="U15" s="113"/>
     </row>
     <row r="16" spans="1:30" s="42" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="115">
+      <c r="C16" s="171"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="114">
         <v>30</v>
       </c>
-      <c r="J16" s="116"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
       <c r="N16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="117" t="e">
+      <c r="O16" s="116" t="e">
         <f>I11*14</f>
         <v>#VALUE!</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="109"/>
-      <c r="U16" s="119"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="108"/>
+      <c r="U16" s="118"/>
     </row>
     <row r="17" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="179" t="s">
+      <c r="B17" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
       <c r="N17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O17" s="117" t="e">
+      <c r="O17" s="116" t="e">
         <f>I12*14</f>
         <v>#VALUE!</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="8"/>
-      <c r="U17" s="122"/>
+      <c r="U17" s="121"/>
     </row>
     <row r="18" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="179" t="s">
+      <c r="B18" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="179" t="s">
+      <c r="B19" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="125" t="e">
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="124" t="e">
         <f>I11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J19" s="126"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
       <c r="M19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:32" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="R20" s="129"/>
+      <c r="R20" s="128"/>
       <c r="U20" s="42"/>
     </row>
     <row r="21" spans="1:32" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="103" t="s">
+      <c r="A21" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="R21" s="130"/>
+      <c r="R21" s="129"/>
     </row>
     <row r="22" spans="1:32" s="1" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="128"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="R22" s="129"/>
+      <c r="R22" s="128"/>
     </row>
-    <row r="23" spans="1:32" s="136" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="131" t="s">
+    <row r="23" spans="1:32" s="135" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="182" t="s">
+      <c r="C23" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="135"/>
-      <c r="R23" s="135"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="133"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
     </row>
-    <row r="24" spans="1:32" s="134" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="137"/>
-      <c r="B24" s="67">
+    <row r="24" spans="1:32" s="133" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="136"/>
+      <c r="B24" s="66">
         <v>1</v>
       </c>
-      <c r="C24" s="172" t="s">
+      <c r="C24" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="138" t="e">
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="137" t="e">
         <f>I12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J24" s="139"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="135"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
     </row>
-    <row r="25" spans="1:32" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:32" s="65" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="43"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="172" t="s">
+      <c r="C25" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="140" t="e">
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="139" t="e">
         <f>I24/120*20</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J25" s="139" t="e">
+      <c r="J25" s="138" t="e">
         <f>I25*15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K25" s="141"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="135"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
+      <c r="K25" s="140"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
     </row>
-    <row r="26" spans="1:32" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="142"/>
-      <c r="B26" s="67">
+    <row r="26" spans="1:32" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="141"/>
+      <c r="B26" s="66">
         <v>2</v>
       </c>
-      <c r="C26" s="172" t="s">
+      <c r="C26" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="140" t="e">
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="139" t="e">
         <f>I24-I25</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J26" s="139"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="143" t="s">
+      <c r="J26" s="138"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="144" t="s">
+      <c r="N26" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="135"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="134"/>
+      <c r="W26" s="134"/>
+      <c r="X26" s="134"/>
     </row>
-    <row r="27" spans="1:32" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="142"/>
-      <c r="B27" s="67">
+    <row r="27" spans="1:32" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="141"/>
+      <c r="B27" s="66">
         <v>3</v>
       </c>
-      <c r="C27" s="172" t="s">
+      <c r="C27" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="140" t="e">
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="139" t="e">
         <f>SUM(I28:I37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J27" s="139"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="135"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
+      <c r="W27" s="134"/>
+      <c r="X27" s="134"/>
     </row>
-    <row r="28" spans="1:32" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="142"/>
+    <row r="28" spans="1:32" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="141"/>
       <c r="B28" s="38"/>
-      <c r="C28" s="172" t="s">
+      <c r="C28" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="140" t="e">
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="139" t="e">
         <f>O11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J28" s="145"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="143" t="s">
+      <c r="J28" s="144"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="N28" s="144" t="s">
+      <c r="N28" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
+      <c r="P28" s="134"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="134"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="134"/>
+      <c r="W28" s="134"/>
+      <c r="X28" s="134"/>
     </row>
-    <row r="29" spans="1:32" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="142"/>
+    <row r="29" spans="1:32" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="141"/>
       <c r="B29" s="38"/>
-      <c r="C29" s="177" t="s">
+      <c r="C29" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="146" t="s">
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="147" t="e">
+      <c r="I29" s="146" t="e">
         <f>IF(H29=D43,I28*3.2%,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J29" s="145"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="P29" s="134"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="134"/>
+      <c r="W29" s="134"/>
+      <c r="X29" s="134"/>
     </row>
-    <row r="30" spans="1:32" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="142"/>
+    <row r="30" spans="1:32" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="141"/>
       <c r="B30" s="38"/>
-      <c r="C30" s="172" t="s">
+      <c r="C30" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="140" t="e">
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="139" t="e">
         <f>Y11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J30" s="145"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="143" t="s">
+      <c r="J30" s="144"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="144" t="s">
+      <c r="N30" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="P30" s="135"/>
-      <c r="Q30" s="135"/>
-      <c r="R30" s="135"/>
-      <c r="S30" s="135"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
-      <c r="V30" s="135"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="135"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="134"/>
+      <c r="X30" s="134"/>
     </row>
-    <row r="31" spans="1:32" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="142"/>
+    <row r="31" spans="1:32" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="141"/>
       <c r="B31" s="38"/>
-      <c r="C31" s="172" t="s">
+      <c r="C31" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="140" t="e">
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="139" t="e">
         <f>S11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J31" s="145"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="Q31" s="135"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="135"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="135"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="135"/>
-      <c r="AC31" s="135"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="135"/>
-      <c r="AF31" s="135"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="134"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="134"/>
+      <c r="U31" s="134"/>
+      <c r="V31" s="134"/>
+      <c r="W31" s="134"/>
+      <c r="X31" s="134"/>
+      <c r="Y31" s="134"/>
+      <c r="Z31" s="134"/>
+      <c r="AA31" s="134"/>
+      <c r="AB31" s="134"/>
+      <c r="AC31" s="134"/>
+      <c r="AD31" s="134"/>
+      <c r="AE31" s="134"/>
+      <c r="AF31" s="134"/>
     </row>
-    <row r="32" spans="1:32" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="142"/>
+    <row r="32" spans="1:32" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="141"/>
       <c r="B32" s="38"/>
-      <c r="C32" s="172" t="s">
+      <c r="C32" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="140" t="e">
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="139" t="e">
         <f>U11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J32" s="145"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="Q32" s="135"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="135"/>
-      <c r="AB32" s="135"/>
-      <c r="AC32" s="135"/>
-      <c r="AD32" s="135"/>
-      <c r="AE32" s="135"/>
-      <c r="AF32" s="135"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="134"/>
+      <c r="S32" s="134"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="134"/>
+      <c r="V32" s="134"/>
+      <c r="W32" s="134"/>
+      <c r="X32" s="134"/>
+      <c r="Y32" s="134"/>
+      <c r="Z32" s="134"/>
+      <c r="AA32" s="134"/>
+      <c r="AB32" s="134"/>
+      <c r="AC32" s="134"/>
+      <c r="AD32" s="134"/>
+      <c r="AE32" s="134"/>
+      <c r="AF32" s="134"/>
     </row>
-    <row r="33" spans="1:33" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="142"/>
-      <c r="B33" s="177" t="s">
+    <row r="33" spans="1:33" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="141"/>
+      <c r="B33" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="146" t="s">
+      <c r="C33" s="162"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="148" t="e">
+      <c r="I33" s="147" t="e">
         <f>IF(H33="ДА",I28*16%/365*Длина_сделки,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J33" s="139"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="Q33" s="135"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="135"/>
-      <c r="AC33" s="135"/>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="135"/>
-      <c r="AF33" s="135"/>
+      <c r="Q33" s="134"/>
+      <c r="R33" s="134"/>
+      <c r="S33" s="134"/>
+      <c r="T33" s="134"/>
+      <c r="U33" s="134"/>
+      <c r="V33" s="134"/>
+      <c r="W33" s="134"/>
+      <c r="X33" s="134"/>
+      <c r="Y33" s="134"/>
+      <c r="Z33" s="134"/>
+      <c r="AA33" s="134"/>
+      <c r="AB33" s="134"/>
+      <c r="AC33" s="134"/>
+      <c r="AD33" s="134"/>
+      <c r="AE33" s="134"/>
+      <c r="AF33" s="134"/>
     </row>
-    <row r="34" spans="1:33" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="142"/>
+    <row r="34" spans="1:33" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="141"/>
       <c r="B34" s="38"/>
-      <c r="C34" s="175" t="s">
+      <c r="C34" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="176"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="140">
+      <c r="D34" s="164"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="139">
         <f>AD11</f>
         <v>0</v>
       </c>
-      <c r="J34" s="149"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="136"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="135"/>
+      <c r="L34" s="135"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="R34" s="135"/>
-      <c r="S34" s="135"/>
-      <c r="T34" s="135"/>
-      <c r="U34" s="135"/>
-      <c r="V34" s="135"/>
-      <c r="W34" s="135"/>
-      <c r="X34" s="135"/>
-      <c r="Y34" s="135"/>
-      <c r="Z34" s="135"/>
-      <c r="AA34" s="135"/>
-      <c r="AB34" s="135"/>
-      <c r="AC34" s="135"/>
-      <c r="AD34" s="135"/>
-      <c r="AE34" s="135"/>
-      <c r="AF34" s="135"/>
-      <c r="AG34" s="135"/>
+      <c r="R34" s="134"/>
+      <c r="S34" s="134"/>
+      <c r="T34" s="134"/>
+      <c r="U34" s="134"/>
+      <c r="V34" s="134"/>
+      <c r="W34" s="134"/>
+      <c r="X34" s="134"/>
+      <c r="Y34" s="134"/>
+      <c r="Z34" s="134"/>
+      <c r="AA34" s="134"/>
+      <c r="AB34" s="134"/>
+      <c r="AC34" s="134"/>
+      <c r="AD34" s="134"/>
+      <c r="AE34" s="134"/>
+      <c r="AF34" s="134"/>
+      <c r="AG34" s="134"/>
     </row>
-    <row r="35" spans="1:33" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="142"/>
+    <row r="35" spans="1:33" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="141"/>
       <c r="B35" s="38"/>
-      <c r="C35" s="172" t="s">
+      <c r="C35" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="173"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="140">
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="139">
         <f>AB11</f>
         <v>0</v>
       </c>
-      <c r="J35" s="149"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="136"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="135"/>
+      <c r="L35" s="135"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="R35" s="135"/>
-      <c r="S35" s="135"/>
-      <c r="T35" s="135"/>
-      <c r="U35" s="135"/>
-      <c r="V35" s="135"/>
-      <c r="W35" s="135"/>
-      <c r="X35" s="135"/>
-      <c r="Y35" s="135"/>
-      <c r="Z35" s="135"/>
-      <c r="AA35" s="135"/>
-      <c r="AB35" s="135"/>
-      <c r="AC35" s="135"/>
-      <c r="AD35" s="135"/>
-      <c r="AE35" s="135"/>
-      <c r="AF35" s="135"/>
-      <c r="AG35" s="135"/>
+      <c r="R35" s="134"/>
+      <c r="S35" s="134"/>
+      <c r="T35" s="134"/>
+      <c r="U35" s="134"/>
+      <c r="V35" s="134"/>
+      <c r="W35" s="134"/>
+      <c r="X35" s="134"/>
+      <c r="Y35" s="134"/>
+      <c r="Z35" s="134"/>
+      <c r="AA35" s="134"/>
+      <c r="AB35" s="134"/>
+      <c r="AC35" s="134"/>
+      <c r="AD35" s="134"/>
+      <c r="AE35" s="134"/>
+      <c r="AF35" s="134"/>
+      <c r="AG35" s="134"/>
     </row>
-    <row r="36" spans="1:33" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="142"/>
+    <row r="36" spans="1:33" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="141"/>
       <c r="B36" s="38"/>
-      <c r="C36" s="172" t="s">
+      <c r="C36" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="140">
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="139">
         <f>AC11</f>
         <v>0</v>
       </c>
-      <c r="J36" s="149"/>
-      <c r="K36" s="136"/>
-      <c r="L36" s="136"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="135"/>
+      <c r="L36" s="135"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="R36" s="135"/>
-      <c r="S36" s="135"/>
-      <c r="T36" s="135"/>
-      <c r="U36" s="135"/>
-      <c r="V36" s="135"/>
-      <c r="W36" s="135"/>
-      <c r="X36" s="135"/>
-      <c r="Y36" s="135"/>
-      <c r="Z36" s="135"/>
-      <c r="AA36" s="135"/>
-      <c r="AB36" s="135"/>
-      <c r="AC36" s="135"/>
-      <c r="AD36" s="135"/>
-      <c r="AE36" s="135"/>
-      <c r="AF36" s="135"/>
-      <c r="AG36" s="135"/>
+      <c r="R36" s="134"/>
+      <c r="S36" s="134"/>
+      <c r="T36" s="134"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="134"/>
+      <c r="W36" s="134"/>
+      <c r="X36" s="134"/>
+      <c r="Y36" s="134"/>
+      <c r="Z36" s="134"/>
+      <c r="AA36" s="134"/>
+      <c r="AB36" s="134"/>
+      <c r="AC36" s="134"/>
+      <c r="AD36" s="134"/>
+      <c r="AE36" s="134"/>
+      <c r="AF36" s="134"/>
+      <c r="AG36" s="134"/>
     </row>
-    <row r="37" spans="1:33" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="142"/>
-      <c r="B37" s="177" t="s">
+    <row r="37" spans="1:33" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="141"/>
+      <c r="B37" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="178"/>
-      <c r="D37" s="178"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="178"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="146" t="s">
+      <c r="C37" s="162"/>
+      <c r="D37" s="162"/>
+      <c r="E37" s="162"/>
+      <c r="F37" s="162"/>
+      <c r="G37" s="162"/>
+      <c r="H37" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="147">
+      <c r="I37" s="146">
         <f>IF(H37="ДА",I24*3%/365*(I15+I16),0)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="139"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
+      <c r="J37" s="138"/>
+      <c r="K37" s="135"/>
+      <c r="L37" s="135"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="R37" s="135"/>
-      <c r="S37" s="135"/>
-      <c r="T37" s="135"/>
-      <c r="U37" s="135"/>
-      <c r="V37" s="135"/>
-      <c r="W37" s="135"/>
-      <c r="X37" s="135"/>
-      <c r="Y37" s="135"/>
-      <c r="Z37" s="135"/>
-      <c r="AA37" s="135"/>
-      <c r="AB37" s="135"/>
-      <c r="AC37" s="135"/>
-      <c r="AD37" s="135"/>
-      <c r="AE37" s="135"/>
-      <c r="AF37" s="135"/>
-      <c r="AG37" s="135"/>
+      <c r="R37" s="134"/>
+      <c r="S37" s="134"/>
+      <c r="T37" s="134"/>
+      <c r="U37" s="134"/>
+      <c r="V37" s="134"/>
+      <c r="W37" s="134"/>
+      <c r="X37" s="134"/>
+      <c r="Y37" s="134"/>
+      <c r="Z37" s="134"/>
+      <c r="AA37" s="134"/>
+      <c r="AB37" s="134"/>
+      <c r="AC37" s="134"/>
+      <c r="AD37" s="134"/>
+      <c r="AE37" s="134"/>
+      <c r="AF37" s="134"/>
+      <c r="AG37" s="134"/>
     </row>
-    <row r="38" spans="1:33" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="142"/>
-      <c r="B38" s="67">
+    <row r="38" spans="1:33" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="141"/>
+      <c r="B38" s="66">
         <v>4</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="140" t="e">
+      <c r="D38" s="159"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="139" t="e">
         <f>I26-I27</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J38" s="139" t="e">
+      <c r="J38" s="138" t="e">
         <f>I38*15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K38" s="150"/>
-      <c r="L38" s="136"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="135"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="R38" s="135"/>
-      <c r="S38" s="135"/>
-      <c r="T38" s="135"/>
-      <c r="U38" s="135"/>
-      <c r="V38" s="135"/>
-      <c r="W38" s="135"/>
-      <c r="X38" s="135"/>
-      <c r="Y38" s="135"/>
-      <c r="Z38" s="135"/>
-      <c r="AA38" s="135"/>
-      <c r="AB38" s="135"/>
-      <c r="AC38" s="135"/>
-      <c r="AD38" s="135"/>
-      <c r="AE38" s="135"/>
-      <c r="AF38" s="135"/>
-      <c r="AG38" s="135"/>
+      <c r="R38" s="134"/>
+      <c r="S38" s="134"/>
+      <c r="T38" s="134"/>
+      <c r="U38" s="134"/>
+      <c r="V38" s="134"/>
+      <c r="W38" s="134"/>
+      <c r="X38" s="134"/>
+      <c r="Y38" s="134"/>
+      <c r="Z38" s="134"/>
+      <c r="AA38" s="134"/>
+      <c r="AB38" s="134"/>
+      <c r="AC38" s="134"/>
+      <c r="AD38" s="134"/>
+      <c r="AE38" s="134"/>
+      <c r="AF38" s="134"/>
+      <c r="AG38" s="134"/>
     </row>
-    <row r="39" spans="1:33" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="142"/>
+    <row r="39" spans="1:33" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A39" s="141"/>
       <c r="B39" s="38"/>
-      <c r="C39" s="172" t="s">
+      <c r="C39" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="136"/>
-      <c r="L39" s="136"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="135"/>
+      <c r="L39" s="135"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="R39" s="135"/>
-      <c r="S39" s="135"/>
-      <c r="T39" s="135"/>
-      <c r="U39" s="135"/>
-      <c r="V39" s="135"/>
-      <c r="W39" s="135"/>
-      <c r="X39" s="135"/>
-      <c r="Y39" s="135"/>
-      <c r="Z39" s="135"/>
-      <c r="AA39" s="135"/>
-      <c r="AB39" s="135"/>
-      <c r="AC39" s="135"/>
-      <c r="AD39" s="135"/>
-      <c r="AE39" s="135"/>
-      <c r="AF39" s="135"/>
-      <c r="AG39" s="135"/>
+      <c r="R39" s="134"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="134"/>
+      <c r="U39" s="134"/>
+      <c r="V39" s="134"/>
+      <c r="W39" s="134"/>
+      <c r="X39" s="134"/>
+      <c r="Y39" s="134"/>
+      <c r="Z39" s="134"/>
+      <c r="AA39" s="134"/>
+      <c r="AB39" s="134"/>
+      <c r="AC39" s="134"/>
+      <c r="AD39" s="134"/>
+      <c r="AE39" s="134"/>
+      <c r="AF39" s="134"/>
+      <c r="AG39" s="134"/>
     </row>
-    <row r="40" spans="1:33" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="142"/>
+    <row r="40" spans="1:33" s="104" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="141"/>
       <c r="B40" s="38"/>
-      <c r="C40" s="172" t="s">
+      <c r="C40" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="174"/>
-      <c r="I40" s="151" t="e">
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="150" t="e">
         <f>I38/I26</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J40" s="152"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="136"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="135"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="R40" s="135"/>
-      <c r="S40" s="135"/>
-      <c r="T40" s="135"/>
-      <c r="U40" s="135"/>
-      <c r="V40" s="135"/>
-      <c r="W40" s="135"/>
-      <c r="X40" s="135"/>
-      <c r="Y40" s="135"/>
-      <c r="Z40" s="135"/>
-      <c r="AA40" s="135"/>
-      <c r="AB40" s="135"/>
-      <c r="AC40" s="135"/>
-      <c r="AD40" s="135"/>
-      <c r="AE40" s="135"/>
-      <c r="AF40" s="135"/>
-      <c r="AG40" s="135"/>
+      <c r="R40" s="134"/>
+      <c r="S40" s="134"/>
+      <c r="T40" s="134"/>
+      <c r="U40" s="134"/>
+      <c r="V40" s="134"/>
+      <c r="W40" s="134"/>
+      <c r="X40" s="134"/>
+      <c r="Y40" s="134"/>
+      <c r="Z40" s="134"/>
+      <c r="AA40" s="134"/>
+      <c r="AB40" s="134"/>
+      <c r="AC40" s="134"/>
+      <c r="AD40" s="134"/>
+      <c r="AE40" s="134"/>
+      <c r="AF40" s="134"/>
+      <c r="AG40" s="134"/>
     </row>
-    <row r="41" spans="1:33" s="105" customFormat="1" ht="12" customHeight="1">
+    <row r="41" spans="1:33" s="104" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -7096,7 +7096,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="128"/>
+      <c r="J41" s="127"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -7123,9 +7123,9 @@
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
-      <c r="J42" s="128"/>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="105"/>
+      <c r="J42" s="127"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
@@ -7150,9 +7150,9 @@
       <c r="D43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J43" s="128"/>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="105"/>
+      <c r="J43" s="127"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
@@ -7177,34 +7177,13 @@
       <c r="D44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J44" s="128"/>
+      <c r="J44" s="127"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:AC15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="B37:G37"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="K7:Z7"/>
     <mergeCell ref="B15:H15"/>
@@ -7218,6 +7197,27 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="X8:Y8"/>
     <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
   </mergeCells>
   <conditionalFormatting sqref="I40">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
